--- a/medicine/Psychotrope/Juul_(entreprise)/Juul_(entreprise).xlsx
+++ b/medicine/Psychotrope/Juul_(entreprise)/Juul_(entreprise).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Juul Labs, Inc. (stylisé en JUUL Labs) est une entreprise américaine qui fabrique des cigarettes électroniques. Fondée en juillet 2017, elle a son siège à San Francisco. L'entreprise quitte le marché français en 2020 après deux ans d'activité. En 2022, ses produits sont interdits à la vente aux États-Unis par la Food and Drug Administration[2].
+Juul Labs, Inc. (stylisé en JUUL Labs) est une entreprise américaine qui fabrique des cigarettes électroniques. Fondée en juillet 2017, elle a son siège à San Francisco. L'entreprise quitte le marché français en 2020 après deux ans d'activité. En 2022, ses produits sont interdits à la vente aux États-Unis par la Food and Drug Administration.
 </t>
         </is>
       </c>
@@ -512,10 +524,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En décembre 2018, Altria a pris une participation minoritaire de 35 % dans Juul pour 12,8 milliards de dollars[3]. Juul propose des vapoteuses (ou aussi appelé cigarette électronique) de poche. En effet, elles ne mesurent que 8 cm. L'entreprise favorise l'aspect pratique avec des vapoteuses de petite taille et des "juul pods" interchangeables de différents goûts (mangue, menthe, baies rouges, blond royal).
-En avril 2022, Juul doit s'acquitter de 22,5 millions de dollars auprès de l'État de Washington, qui l'accuse d'avoir visé les adolescents dans sa stratégie marketing[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En décembre 2018, Altria a pris une participation minoritaire de 35 % dans Juul pour 12,8 milliards de dollars. Juul propose des vapoteuses (ou aussi appelé cigarette électronique) de poche. En effet, elles ne mesurent que 8 cm. L'entreprise favorise l'aspect pratique avec des vapoteuses de petite taille et des "juul pods" interchangeables de différents goûts (mangue, menthe, baies rouges, blond royal).
+En avril 2022, Juul doit s'acquitter de 22,5 millions de dollars auprès de l'État de Washington, qui l'accuse d'avoir visé les adolescents dans sa stratégie marketing.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Concept</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Au départ, l'entreprise se veut d'accompagner les fumeurs adultes dans leurs processus d'arrêt de consommation du tabac[réf. nécessaire]. Face aux critiques[Lesquelles ?] quant à l'utilisation de ses vapoteuses par des mineurs Juul renforce[Comment ?] les contrôles[Lesquels ?] et fait de ce problème sa priorité[réf. nécessaire].
 </t>
